--- a/Turma Home Jan2018/1° Sabado/Aula 4/Procv 1 Aula Procv.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 4/Procv 1 Aula Procv.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C35807-D120-458C-B046-C8FBFAE2FD02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan1 (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="tabela" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aula5" localSheetId="1">#REF!</definedName>
     <definedName name="aula5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Aline Carvalho</t>
   </si>
@@ -125,9 +132,6 @@
   </si>
   <si>
     <t>Francês Básico</t>
-  </si>
-  <si>
-    <t>nivel</t>
   </si>
   <si>
     <t>CÓDIGO</t>
@@ -327,17 +331,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -366,142 +370,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6337023" y="0"/>
-          <a:ext cx="1169505" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -528,227 +396,6 @@
         <a:xfrm>
           <a:off x="6278217" y="637760"/>
           <a:ext cx="2559326" cy="1374913"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -40898"/>
-            <a:gd name="adj2" fmla="val 82982"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Buscar o valor do curso na tabela</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1600" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> através do código.</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1600">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5D66CF-9EDB-49E7-A3A2-3BA1A4C9F0B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6337023" y="0"/>
-          <a:ext cx="1169505" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8692CEFC-4340-4E8F-999F-E4070D425DAE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2593E586-04C0-4ECB-87AD-674F0D2851CD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Texto explicativo retangular 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25930795-6D10-44CC-BFA8-4DFDA7425BFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7523093" y="643558"/>
-          <a:ext cx="2546074" cy="1386094"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1127,382 +774,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7">
-        <v>195.77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7">
-        <v>195.77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7">
-        <v>152.34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7">
-        <v>152.34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="7">
-        <v>195.77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="7">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="7">
-        <v>152.34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="7">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="6">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="7">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="B1:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFAAD25-D1F5-4396-8EC2-5052595BB7DF}">
-  <dimension ref="B1:H30"/>
-  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E29"/>
     </sheetView>
@@ -1517,46 +788,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1569,9 +840,6 @@
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -1580,11 +848,10 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7">
-        <f>VLOOKUP(C9,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>195.77</v>
-      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1593,11 +860,10 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7">
-        <f>VLOOKUP(C10,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1606,11 +872,10 @@
       <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7">
-        <f>VLOOKUP(C11,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>195.77</v>
-      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1619,11 +884,10 @@
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7">
-        <f>VLOOKUP(C12,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1632,11 +896,10 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7">
-        <f>VLOOKUP(C13,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>152.34</v>
-      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1645,11 +908,10 @@
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7">
-        <f>VLOOKUP(C14,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -1658,11 +920,10 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7">
-        <f>VLOOKUP(C15,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>152.34</v>
-      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -1671,11 +932,10 @@
       <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7">
-        <f>VLOOKUP(C16,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -1684,11 +944,10 @@
       <c r="C17" s="6">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7">
-        <f>VLOOKUP(C17,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>230</v>
-      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
@@ -1697,11 +956,10 @@
       <c r="C18" s="6">
         <v>6</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7">
-        <f>VLOOKUP(C18,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>230</v>
-      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -1710,11 +968,10 @@
       <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7">
-        <f>VLOOKUP(C19,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -1723,11 +980,10 @@
       <c r="C20" s="6">
         <v>8</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7">
-        <f>VLOOKUP(C20,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>217</v>
-      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -1736,11 +992,10 @@
       <c r="C21" s="6">
         <v>6</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7">
-        <f>VLOOKUP(C21,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>230</v>
-      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -1749,11 +1004,10 @@
       <c r="C22" s="6">
         <v>2</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7">
-        <f>VLOOKUP(C22,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>195.77</v>
-      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -1762,11 +1016,10 @@
       <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7">
-        <f>VLOOKUP(C23,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
@@ -1775,11 +1028,10 @@
       <c r="C24" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7">
-        <f>VLOOKUP(C24,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -1788,11 +1040,10 @@
       <c r="C25" s="6">
         <v>9</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7">
-        <f>VLOOKUP(C25,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>280</v>
-      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
@@ -1801,11 +1052,10 @@
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7">
-        <f>VLOOKUP(C26,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>152.34</v>
-      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -1814,11 +1064,10 @@
       <c r="C27" s="6">
         <v>8</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="7">
-        <f>VLOOKUP(C27,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>217</v>
-      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -1827,11 +1076,10 @@
       <c r="C28" s="6">
         <v>5</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="7">
-        <f>VLOOKUP(C28,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
@@ -1840,29 +1088,28 @@
       <c r="C29" s="6">
         <v>7</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7">
-        <f>VLOOKUP(C29,'Plan1 (3)'!$A$2:$C$10,3,FALSE)</f>
-        <v>170</v>
-      </c>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B5:H6"/>
     <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E053C85-A74D-4042-9906-74531BBA4922}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,112 +1120,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>152.34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>195.77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>280</v>
       </c>
     </row>
